--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Tnc-Ptprb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H2">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J2">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>123.4014646666667</v>
+        <v>237.3377026666667</v>
       </c>
       <c r="N2">
-        <v>370.204394</v>
+        <v>712.013108</v>
       </c>
       <c r="O2">
-        <v>0.9838440244846903</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="P2">
-        <v>0.9838440244846903</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="Q2">
-        <v>245.7273210334771</v>
+        <v>1530.769797125144</v>
       </c>
       <c r="R2">
-        <v>2211.545889301294</v>
+        <v>13776.9281741263</v>
       </c>
       <c r="S2">
-        <v>0.01122412422367833</v>
+        <v>0.03440816490043105</v>
       </c>
       <c r="T2">
-        <v>0.01122412422367833</v>
+        <v>0.03440816490043105</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H3">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J3">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>3.076057</v>
       </c>
       <c r="O3">
-        <v>0.008174836245796433</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="P3">
-        <v>0.008174836245796433</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="Q3">
-        <v>2.041767353945223</v>
+        <v>6.613270313326002</v>
       </c>
       <c r="R3">
-        <v>18.375906185507</v>
+        <v>59.51943281993401</v>
       </c>
       <c r="S3">
-        <v>9.326211802638764E-05</v>
+        <v>0.0001486510224459593</v>
       </c>
       <c r="T3">
-        <v>9.326211802638763E-05</v>
+        <v>0.0001486510224459593</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.991283666666667</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H4">
-        <v>5.973851</v>
+        <v>19.349262</v>
       </c>
       <c r="I4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J4">
-        <v>0.01140843867965475</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,33 +679,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.001057333333333</v>
+        <v>1.587950666666667</v>
       </c>
       <c r="N4">
-        <v>3.003172</v>
+        <v>4.763852</v>
       </c>
       <c r="O4">
-        <v>0.007981139269513202</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="P4">
-        <v>0.0079811392695132</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="Q4">
-        <v>1.993389117263556</v>
+        <v>10.241891164136</v>
       </c>
       <c r="R4">
-        <v>17.940502055372</v>
+        <v>92.17702047722402</v>
       </c>
       <c r="S4">
-        <v>9.105233795002586E-05</v>
+        <v>0.0002302140274322706</v>
       </c>
       <c r="T4">
-        <v>9.105233795002583E-05</v>
+        <v>0.0002302140274322706</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +714,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.027733</v>
+        <v>6.449754000000001</v>
       </c>
       <c r="H5">
-        <v>369.083199</v>
+        <v>19.349262</v>
       </c>
       <c r="I5">
-        <v>0.7048490234326754</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="J5">
-        <v>0.7048490234326754</v>
+        <v>0.03479900749229446</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>123.4014646666667</v>
+        <v>0.08261766666666666</v>
       </c>
       <c r="N5">
-        <v>370.204394</v>
+        <v>0.247853</v>
       </c>
       <c r="O5">
-        <v>0.9838440244846903</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="P5">
-        <v>0.9838440244846903</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="Q5">
-        <v>15181.8024468196</v>
+        <v>0.5328636260540001</v>
       </c>
       <c r="R5">
-        <v>136636.2220213764</v>
+        <v>4.795772634486001</v>
       </c>
       <c r="S5">
-        <v>0.6934614998681071</v>
+        <v>1.197754198517724E-05</v>
       </c>
       <c r="T5">
-        <v>0.6934614998681071</v>
+        <v>1.197754198517724E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +776,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,10 +791,10 @@
         <v>369.083199</v>
       </c>
       <c r="I6">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J6">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.025352333333333</v>
+        <v>237.3377026666667</v>
       </c>
       <c r="N6">
-        <v>3.076057</v>
+        <v>712.013108</v>
       </c>
       <c r="O6">
-        <v>0.008174836245796433</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="P6">
-        <v>0.008174836245796433</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="Q6">
-        <v>126.1467730962604</v>
+        <v>29199.11951450806</v>
       </c>
       <c r="R6">
-        <v>1135.320957866343</v>
+        <v>262792.0756305724</v>
       </c>
       <c r="S6">
-        <v>0.005762025344571655</v>
+        <v>0.6563286792628373</v>
       </c>
       <c r="T6">
-        <v>0.005762025344571655</v>
+        <v>0.6563286792628374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +838,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -853,10 +853,10 @@
         <v>369.083199</v>
       </c>
       <c r="I7">
-        <v>0.7048490234326754</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J7">
-        <v>0.7048490234326754</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,33 +865,33 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.001057333333333</v>
+        <v>1.025352333333333</v>
       </c>
       <c r="N7">
-        <v>3.003172</v>
+        <v>3.076057</v>
       </c>
       <c r="O7">
-        <v>0.007981139269513202</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="P7">
-        <v>0.0079811392695132</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="Q7">
-        <v>123.1578143230254</v>
+        <v>126.1467730962603</v>
       </c>
       <c r="R7">
-        <v>1108.420328907228</v>
+        <v>1135.320957866343</v>
       </c>
       <c r="S7">
-        <v>0.005625498219996556</v>
+        <v>0.002835487725525421</v>
       </c>
       <c r="T7">
-        <v>0.005625498219996555</v>
+        <v>0.002835487725525421</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +900,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>49.488374</v>
+        <v>123.027733</v>
       </c>
       <c r="H8">
-        <v>148.465122</v>
+        <v>369.083199</v>
       </c>
       <c r="I8">
-        <v>0.2835282032317949</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J8">
-        <v>0.2835282032317949</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,33 +927,33 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>123.4014646666667</v>
+        <v>1.587950666666667</v>
       </c>
       <c r="N8">
-        <v>370.204394</v>
+        <v>4.763852</v>
       </c>
       <c r="O8">
-        <v>0.9838440244846903</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="P8">
-        <v>0.9838440244846903</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="Q8">
-        <v>6106.937835571784</v>
+        <v>195.3619706358387</v>
       </c>
       <c r="R8">
-        <v>54962.44052014607</v>
+        <v>1758.257735722548</v>
       </c>
       <c r="S8">
-        <v>0.2789475285224823</v>
+        <v>0.004391285295499962</v>
       </c>
       <c r="T8">
-        <v>0.2789475285224823</v>
+        <v>0.004391285295499962</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +962,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>49.488374</v>
+        <v>123.027733</v>
       </c>
       <c r="H9">
-        <v>148.465122</v>
+        <v>369.083199</v>
       </c>
       <c r="I9">
-        <v>0.2835282032317949</v>
+        <v>0.663783921437469</v>
       </c>
       <c r="J9">
-        <v>0.2835282032317949</v>
+        <v>0.6637839214374691</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.025352333333333</v>
+        <v>0.08261766666666666</v>
       </c>
       <c r="N9">
-        <v>3.076057</v>
+        <v>0.247853</v>
       </c>
       <c r="O9">
-        <v>0.008174836245796433</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="P9">
-        <v>0.008174836245796433</v>
+        <v>0.0003441920574266213</v>
       </c>
       <c r="Q9">
-        <v>50.74301975377267</v>
+        <v>10.16426423574967</v>
       </c>
       <c r="R9">
-        <v>456.6871777839541</v>
+        <v>91.47837812174699</v>
       </c>
       <c r="S9">
-        <v>0.002317796632484814</v>
+        <v>0.0002284691536062732</v>
       </c>
       <c r="T9">
-        <v>0.002317796632484814</v>
+        <v>0.0002284691536062733</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1024,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>49.488374</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H10">
-        <v>148.465122</v>
+        <v>167.371159</v>
       </c>
       <c r="I10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J10">
-        <v>0.2835282032317949</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,33 +1051,33 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.001057333333333</v>
+        <v>237.3377026666667</v>
       </c>
       <c r="N10">
-        <v>3.003172</v>
+        <v>712.013108</v>
       </c>
       <c r="O10">
-        <v>0.007981139269513202</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="P10">
-        <v>0.0079811392695132</v>
+        <v>0.9887685707142667</v>
       </c>
       <c r="Q10">
-        <v>49.54069970744268</v>
+        <v>13241.16212323913</v>
       </c>
       <c r="R10">
-        <v>445.866297366984</v>
+        <v>119170.4591091522</v>
       </c>
       <c r="S10">
-        <v>0.002262878076827798</v>
+        <v>0.2976307023207534</v>
       </c>
       <c r="T10">
-        <v>0.002262878076827797</v>
+        <v>0.2976307023207534</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,25 +1086,25 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.037411</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H11">
-        <v>0.112233</v>
+        <v>167.371159</v>
       </c>
       <c r="I11">
-        <v>0.0002143346558750279</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J11">
-        <v>0.0002143346558750279</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,33 +1113,33 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>123.4014646666667</v>
+        <v>1.025352333333333</v>
       </c>
       <c r="N11">
-        <v>370.204394</v>
+        <v>3.076057</v>
       </c>
       <c r="O11">
-        <v>0.9838440244846903</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="P11">
-        <v>0.9838440244846903</v>
+        <v>0.004271702935173513</v>
       </c>
       <c r="Q11">
-        <v>4.616572194644666</v>
+        <v>57.20480280445145</v>
       </c>
       <c r="R11">
-        <v>41.549149751802</v>
+        <v>514.843225240063</v>
       </c>
       <c r="S11">
-        <v>0.0002108718704226286</v>
+        <v>0.001285831672200998</v>
       </c>
       <c r="T11">
-        <v>0.0002108718704226286</v>
+        <v>0.001285831672200998</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,25 +1148,25 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.037411</v>
+        <v>55.79038633333334</v>
       </c>
       <c r="H12">
-        <v>0.112233</v>
+        <v>167.371159</v>
       </c>
       <c r="I12">
-        <v>0.0002143346558750279</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="J12">
-        <v>0.0002143346558750279</v>
+        <v>0.3010114916028843</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,33 +1175,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.025352333333333</v>
+        <v>1.587950666666667</v>
       </c>
       <c r="N12">
-        <v>3.076057</v>
+        <v>4.763852</v>
       </c>
       <c r="O12">
-        <v>0.008174836245796433</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="P12">
-        <v>0.008174836245796433</v>
+        <v>0.006615534293133127</v>
       </c>
       <c r="Q12">
-        <v>0.03835945614233334</v>
+        <v>88.59238117160757</v>
       </c>
       <c r="R12">
-        <v>0.345235105281</v>
+        <v>797.331430544468</v>
       </c>
       <c r="S12">
-        <v>1.752150713577484E-06</v>
+        <v>0.001991351845326035</v>
       </c>
       <c r="T12">
-        <v>1.752150713577484E-06</v>
+        <v>0.001991351845326035</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1210,55 +1210,303 @@
         <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>55.79038633333334</v>
+      </c>
+      <c r="H13">
+        <v>167.371159</v>
+      </c>
+      <c r="I13">
+        <v>0.3010114916028843</v>
+      </c>
+      <c r="J13">
+        <v>0.3010114916028843</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.08261766666666666</v>
+      </c>
+      <c r="N13">
+        <v>0.247853</v>
+      </c>
+      <c r="O13">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="P13">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="Q13">
+        <v>4.609271541291889</v>
+      </c>
+      <c r="R13">
+        <v>41.483443871627</v>
+      </c>
+      <c r="S13">
+        <v>0.0001036057646038529</v>
+      </c>
+      <c r="T13">
+        <v>0.0001036057646038529</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.07517133333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.225514</v>
+      </c>
+      <c r="I14">
+        <v>0.0004055794673521549</v>
+      </c>
+      <c r="J14">
+        <v>0.000405579467352155</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>237.3377026666667</v>
+      </c>
+      <c r="N14">
+        <v>712.013108</v>
+      </c>
+      <c r="O14">
+        <v>0.9887685707142667</v>
+      </c>
+      <c r="P14">
+        <v>0.9887685707142667</v>
+      </c>
+      <c r="Q14">
+        <v>17.84099155972356</v>
+      </c>
+      <c r="R14">
+        <v>160.568924037512</v>
+      </c>
+      <c r="S14">
+        <v>0.0004010242302448438</v>
+      </c>
+      <c r="T14">
+        <v>0.0004010242302448438</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.07517133333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.225514</v>
+      </c>
+      <c r="I15">
+        <v>0.0004055794673521549</v>
+      </c>
+      <c r="J15">
+        <v>0.000405579467352155</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.025352333333333</v>
+      </c>
+      <c r="N15">
+        <v>3.076057</v>
+      </c>
+      <c r="O15">
+        <v>0.004271702935173513</v>
+      </c>
+      <c r="P15">
+        <v>0.004271702935173513</v>
+      </c>
+      <c r="Q15">
+        <v>0.07707710203311111</v>
+      </c>
+      <c r="R15">
+        <v>0.693693918298</v>
+      </c>
+      <c r="S15">
+        <v>1.73251500113431E-06</v>
+      </c>
+      <c r="T15">
+        <v>1.73251500113431E-06</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.037411</v>
-      </c>
-      <c r="H13">
-        <v>0.112233</v>
-      </c>
-      <c r="I13">
-        <v>0.0002143346558750279</v>
-      </c>
-      <c r="J13">
-        <v>0.0002143346558750279</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>1.001057333333333</v>
-      </c>
-      <c r="N13">
-        <v>3.003172</v>
-      </c>
-      <c r="O13">
-        <v>0.007981139269513202</v>
-      </c>
-      <c r="P13">
-        <v>0.0079811392695132</v>
-      </c>
-      <c r="Q13">
-        <v>0.03745055589733334</v>
-      </c>
-      <c r="R13">
-        <v>0.337055003076</v>
-      </c>
-      <c r="S13">
-        <v>1.710634738821784E-06</v>
-      </c>
-      <c r="T13">
-        <v>1.710634738821784E-06</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.07517133333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.225514</v>
+      </c>
+      <c r="I16">
+        <v>0.0004055794673521549</v>
+      </c>
+      <c r="J16">
+        <v>0.000405579467352155</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.587950666666667</v>
+      </c>
+      <c r="N16">
+        <v>4.763852</v>
+      </c>
+      <c r="O16">
+        <v>0.006615534293133127</v>
+      </c>
+      <c r="P16">
+        <v>0.006615534293133127</v>
+      </c>
+      <c r="Q16">
+        <v>0.1193683688808889</v>
+      </c>
+      <c r="R16">
+        <v>1.074315319928</v>
+      </c>
+      <c r="S16">
+        <v>2.683124874858848E-06</v>
+      </c>
+      <c r="T16">
+        <v>2.683124874858849E-06</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.07517133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.225514</v>
+      </c>
+      <c r="I17">
+        <v>0.0004055794673521549</v>
+      </c>
+      <c r="J17">
+        <v>0.000405579467352155</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.08261766666666666</v>
+      </c>
+      <c r="N17">
+        <v>0.247853</v>
+      </c>
+      <c r="O17">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="P17">
+        <v>0.0003441920574266213</v>
+      </c>
+      <c r="Q17">
+        <v>0.006210480160222221</v>
+      </c>
+      <c r="R17">
+        <v>0.055894321442</v>
+      </c>
+      <c r="S17">
+        <v>1.395972313179314E-07</v>
+      </c>
+      <c r="T17">
+        <v>1.395972313179314E-07</v>
       </c>
     </row>
   </sheetData>
